--- a/biology/Botanique/Acanthophoenix_crinita/Acanthophoenix_crinita.xlsx
+++ b/biology/Botanique/Acanthophoenix_crinita/Acanthophoenix_crinita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Palmiste noir ou Palmiste noir des hauts  (Acanthophoenix crinita (Bory) H.Wendl., 1866) est une espèce de plantes de la famille des arécacées. Elle est endémique de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l’océan Indien.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce palmier a été d'abord décrit comme Areca crinita par le naturaliste français Jean-Baptiste Bory de Saint-Vincent  en 1804 et classifiée par le botaniste allemand Hermann Wendland dans son  genre actuel  Acanthophoenix en 1867[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce palmier a été d'abord décrit comme Areca crinita par le naturaliste français Jean-Baptiste Bory de Saint-Vincent  en 1804 et classifiée par le botaniste allemand Hermann Wendland dans son  genre actuel  Acanthophoenix en 1867.
 Dans la liste de plantes 1995, Rafaël Govaerts a considéré  A. crinita comme un synonyme d'Acanthophoenix rubra, de même Govaerts et John Dransfield dans leur liste de contrôle 2005 des palmiers. Cependant, dans sa révision du genre, Nicole Ludwig a reconnu A. crinita comme une espèce bien distincte.
 			Acanthophoenix crinita
 			détail des épines de la gaine foliaire.
